--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\austi\PycharmProjects\logistic-regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DD3D81-6B39-47CB-9F90-8E9FCCE14E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164FD611-A3A4-41C0-8DD4-1AA8527F5D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="15000" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="15930" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,7 +380,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -444,7 +444,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -452,7 +452,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -460,7 +460,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -468,7 +468,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -476,6 +476,54 @@
         <v>12</v>
       </c>
       <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21">
         <v>1</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\austi\PycharmProjects\logistic-regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164FD611-A3A4-41C0-8DD4-1AA8527F5D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47CBCE0-8ED8-4902-B748-B538ECCF02CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="15930" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -348,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,7 +388,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -385,15 +396,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -401,133 +412,24 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>16</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>16</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
+    <sortCondition ref="A2:A7"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>